--- a/doc/log/log_201508030328_zhoutong.xlsx
+++ b/doc/log/log_201508030328_zhoutong.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>日期</t>
   </si>
@@ -273,6 +273,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="1"/>
+      </rPr>
       <t>dao</t>
     </r>
     <r>
@@ -311,6 +317,78 @@
         <charset val="1"/>
       </rPr>
       <t>测试完成，都可用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学习老师和组长的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="1"/>
+      </rPr>
+      <t>web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="1"/>
+      </rPr>
+      <t>部分的代码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>尝试组建自己的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="1"/>
+      </rPr>
+      <t>web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="1"/>
+      </rPr>
+      <t>部分的代码</t>
+    </r>
+  </si>
+  <si>
+    <t>模块代码写完，但测试失败</t>
+  </si>
+  <si>
+    <r>
+      <t>修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="1"/>
+      </rPr>
+      <t>web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="1"/>
+      </rPr>
+      <t>代码</t>
     </r>
   </si>
   <si>
@@ -326,13 +404,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="yy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -371,13 +449,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="DejaVu Sans"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,6 +468,36 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -397,39 +506,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -441,84 +544,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,6 +567,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
@@ -553,187 +625,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,56 +816,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -822,6 +844,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -838,6 +884,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -847,142 +919,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1019,9 +1091,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1346,10 +1415,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1651,34 +1720,79 @@
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" ht="32" customHeight="1" spans="1:3">
-      <c r="A21" s="17">
+    <row r="21" ht="32" customHeight="1" spans="1:4">
+      <c r="A21" s="16">
         <v>43258</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="B21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" ht="54" customHeight="1" spans="1:3">
-      <c r="A22" s="17">
+      <c r="D21" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" ht="54" customHeight="1" spans="1:4">
+      <c r="A22" s="16">
         <v>43259</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="16" t="s">
+      <c r="B22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="D22" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" ht="98" customHeight="1" spans="1:3">
+      <c r="A23" s="16">
+        <v>43260</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" ht="73" customHeight="1" spans="1:4">
+      <c r="A24" s="16">
+        <v>43261</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" ht="105" customHeight="1" spans="1:3">
+      <c r="A25" s="16">
+        <v>43262</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" ht="65" customHeight="1" spans="1:1">
+      <c r="A26" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -1704,13 +1818,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1725,7 +1839,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>

--- a/doc/log/log_201508030328_zhoutong.xlsx
+++ b/doc/log/log_201508030328_zhoutong.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>日期</t>
   </si>
@@ -293,6 +293,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="1"/>
+      </rPr>
       <t>service</t>
     </r>
     <r>
@@ -307,6 +313,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="1"/>
+      </rPr>
       <t>service</t>
     </r>
     <r>
@@ -321,6 +333,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="1"/>
+      </rPr>
       <t>学习老师和组长的</t>
     </r>
     <r>
@@ -344,6 +362,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="1"/>
+      </rPr>
       <t>尝试组建自己的</t>
     </r>
     <r>
@@ -380,6 +404,75 @@
         <charset val="1"/>
       </rPr>
       <t>web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="1"/>
+      </rPr>
+      <t>代码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>搞定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="1"/>
+      </rPr>
+      <t>jsp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="1"/>
+      </rPr>
+      <t>部分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>搞定前端</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="1"/>
+      </rPr>
+      <t>js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="1"/>
+      </rPr>
+      <t>部分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="1"/>
+      </rPr>
+      <t>web'</t>
     </r>
     <r>
       <rPr>
@@ -404,11 +497,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="yy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -448,23 +541,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -475,14 +557,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -490,11 +564,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -505,13 +577,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -520,17 +585,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,6 +607,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,7 +623,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,9 +675,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,17 +689,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -625,6 +718,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -637,31 +760,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,139 +874,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,7 +931,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,9 +953,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,17 +982,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,146 +1004,146 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1415,10 +1508,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1788,8 +1881,47 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" ht="65" customHeight="1" spans="1:1">
-      <c r="A26" s="16"/>
+    <row r="26" ht="65" customHeight="1" spans="1:4">
+      <c r="A26" s="16">
+        <v>43262</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" ht="62" customHeight="1" spans="1:4">
+      <c r="A27" s="16">
+        <v>43263</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" ht="72" customHeight="1" spans="1:4">
+      <c r="A28" s="16">
+        <v>43264</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
@@ -1818,13 +1950,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
